--- a/R/UI_and_SERVER/CLIMINET/Données/Geo/REGIONs/IncomeLevels/CCMN_RDATA_IncomeLevels.xlsx
+++ b/R/UI_and_SERVER/CLIMINET/Données/Geo/REGIONs/IncomeLevels/CCMN_RDATA_IncomeLevels.xlsx
@@ -1,112 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\R\UI_and_SERVER\CLIMINET\Données\Geo\REGIONs\IncomeLevels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCA258A-56CC-49B0-88D3-A46AEF5C2405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1416" yWindow="1284" windowWidth="21264" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabelR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLRCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBOX_AREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centroid_X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centroid_Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centroid_of_LARGEST_POLYGON_X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centroid_of_LARGEST_POLYGON_Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBOX_Centroid_X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBOX_Centroid_Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOURCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-Income Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Income Level (2020): &lt;/b&gt;High-Income Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#0F8554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Health OrGanization (WHO) - Countries and Fondation Jean-Jacques Laffont - Toulouse Sciences Economiques and Global Administrative Areas (GADM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low Income Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Income Level (2020): &lt;/b&gt;Low Income Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#7B3294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower-Middle-Income Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Income Level (2020): &lt;/b&gt;Lower-Middle-Income Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#A885B7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Countries/Territories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Income Level (2020): &lt;/b&gt;Other Countries/Territories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper-Middle-Income Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Income Level (2020): &lt;/b&gt;Upper-Middle-Income Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#8DCE92</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>LabelR</t>
+  </si>
+  <si>
+    <t>CLRCode</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>BBOX_AREA</t>
+  </si>
+  <si>
+    <t>Centroid_X</t>
+  </si>
+  <si>
+    <t>Centroid_Y</t>
+  </si>
+  <si>
+    <t>Centroid_of_LARGEST_POLYGON_X</t>
+  </si>
+  <si>
+    <t>Centroid_of_LARGEST_POLYGON_Y</t>
+  </si>
+  <si>
+    <t>BBOX_Centroid_X</t>
+  </si>
+  <si>
+    <t>BBOX_Centroid_Y</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>High-Income Countries</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Income Level (2020): &lt;/b&gt;High-Income Countries</t>
+  </si>
+  <si>
+    <t>#0F8554</t>
+  </si>
+  <si>
+    <t>World Health OrGanization (WHO) - Countries and Fondation Jean-Jacques Laffont - Toulouse Sciences Economiques and Global Administrative Areas (GADM)</t>
+  </si>
+  <si>
+    <t>#7B3294</t>
+  </si>
+  <si>
+    <t>Lower-Middle-Income Countries</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Income Level (2020): &lt;/b&gt;Lower-Middle-Income Countries</t>
+  </si>
+  <si>
+    <t>#A885B7</t>
+  </si>
+  <si>
+    <t>Other Countries/Territories</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Income Level (2020): &lt;/b&gt;Other Countries/Territories</t>
+  </si>
+  <si>
+    <t>#999999</t>
+  </si>
+  <si>
+    <t>Upper-Middle-Income Countries</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Income Level (2020): &lt;/b&gt;Upper-Middle-Income Countries</t>
+  </si>
+  <si>
+    <t>#8DCE92</t>
+  </si>
+  <si>
+    <t>Low-Income Countries</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Income Level (2020): &lt;/b&gt;Low-Income Countries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -142,6 +149,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,14 +439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,11 +489,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1503</v>
       </c>
       <c r="C2" t="s">
@@ -484,191 +502,190 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="n">
-        <v>38144760.80428</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2291697.83346</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2">
+        <v>38144760.804279998</v>
+      </c>
+      <c r="F2">
+        <v>2291697.8334599999</v>
+      </c>
+      <c r="G2">
         <v>-114.887098427198</v>
       </c>
-      <c r="H2" t="n">
-        <v>73.149120326148</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>73.149120326147994</v>
+      </c>
+      <c r="I2">
         <v>-114.885286981728</v>
       </c>
-      <c r="J2" t="n">
-        <v>73.1487839313863</v>
-      </c>
-      <c r="K2" t="n">
-        <v>179.9703979495</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.72270960750666</v>
+      <c r="J2">
+        <v>73.148783931386305</v>
+      </c>
+      <c r="K2">
+        <v>179.97039794950001</v>
+      </c>
+      <c r="L2">
+        <v>5.7227096075066601</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>14555741.76025</v>
       </c>
-      <c r="F3" t="n">
-        <v>192110285.69712</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>192110285.69712001</v>
+      </c>
+      <c r="G3">
         <v>24.8444925686894</v>
       </c>
-      <c r="H3" t="n">
-        <v>8.36605972798196</v>
-      </c>
-      <c r="I3" t="n">
-        <v>21.2974733396851</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.0069631617859</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-151.885101301</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.61223397134643</v>
+      <c r="H3">
+        <v>8.3660597279819608</v>
+      </c>
+      <c r="I3">
+        <v>21.297473339685101</v>
+      </c>
+      <c r="J3">
+        <v>10.006963161785899</v>
+      </c>
+      <c r="K3">
+        <v>-151.88510130099999</v>
+      </c>
+      <c r="L3">
+        <v>4.6122339713464298</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1501</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="n">
-        <v>1501</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>22367197.35946</v>
       </c>
-      <c r="F4" t="n">
-        <v>7947339.76725</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38.3586882473516</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22.8870565942827</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="F4">
+        <v>7947339.7672499996</v>
+      </c>
+      <c r="G4">
+        <v>38.358688247351601</v>
+      </c>
+      <c r="H4">
+        <v>22.887056594282701</v>
+      </c>
+      <c r="I4">
         <v>38.3591687485318</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>22.8872323757282</v>
       </c>
-      <c r="K4" t="n">
-        <v>-178.8477478</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.81417831642021</v>
+      <c r="K4">
+        <v>-178.84774780000001</v>
+      </c>
+      <c r="L4">
+        <v>8.8141783164202092</v>
       </c>
       <c r="M4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5"/>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>13410577.86503</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>64.1993679545799</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-81.9277242086542</v>
-      </c>
-      <c r="I5" t="n">
-        <v>82.9386600514997</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-84.6718299788888</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="G5">
+        <v>64.199367954579898</v>
+      </c>
+      <c r="H5">
+        <v>-81.927724208654197</v>
+      </c>
+      <c r="I5">
+        <v>82.938660051499696</v>
+      </c>
+      <c r="J5">
+        <v>-84.671829978888795</v>
+      </c>
+      <c r="K5">
         <v>180</v>
       </c>
-      <c r="L5" t="n">
-        <v>-0.470846829139235</v>
+      <c r="L5">
+        <v>-0.47084682913923498</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1502</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="n">
-        <v>1502</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="n">
-        <v>58375871.41989</v>
-      </c>
-      <c r="F6" t="n">
-        <v>29.37995</v>
-      </c>
-      <c r="G6" t="n">
-        <v>32.9008274656102</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="E6">
+        <v>58375871.419890001</v>
+      </c>
+      <c r="F6">
+        <v>29.379950000000001</v>
+      </c>
+      <c r="G6">
+        <v>32.900827465610199</v>
+      </c>
+      <c r="H6">
         <v>60.552226247103</v>
       </c>
-      <c r="I6" t="n">
-        <v>37.6655359380834</v>
-      </c>
-      <c r="J6" t="n">
-        <v>60.6971380331908</v>
-      </c>
-      <c r="K6" t="n">
-        <v>179.999999991976</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.86490452863247</v>
+      <c r="I6">
+        <v>37.665535938083401</v>
+      </c>
+      <c r="J6">
+        <v>60.697138033190797</v>
+      </c>
+      <c r="K6">
+        <v>179.99999999197601</v>
+      </c>
+      <c r="L6">
+        <v>5.8649045286324704</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
@@ -676,6 +693,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>